--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12DD67-97F5-4B04-8841-3AC59B8DFD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA79B419-239E-42AF-BA13-BAC94A78EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10512" yWindow="1788" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UEFI CRT Symbols List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1128">
   <si>
     <t>arm64 Common Symbols</t>
   </si>
@@ -3236,6 +3236,182 @@
   </si>
   <si>
     <t>_fpieee_flt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_errno</t>
+  </si>
+  <si>
+    <t>_i64toa_s</t>
+  </si>
+  <si>
+    <t>_i64tow_s</t>
+  </si>
+  <si>
+    <t>_itoa_s</t>
+  </si>
+  <si>
+    <t>_itow_s</t>
+  </si>
+  <si>
+    <t>_ltoa_s</t>
+  </si>
+  <si>
+    <t>_ltow_s</t>
+  </si>
+  <si>
+    <t>_makepath_s</t>
+  </si>
+  <si>
+    <t>_snprintf_s</t>
+  </si>
+  <si>
+    <t>_snscanf_s</t>
+  </si>
+  <si>
+    <t>_snwprintf_s</t>
+  </si>
+  <si>
+    <t>_snwscanf_s</t>
+  </si>
+  <si>
+    <t>_splitpath_s</t>
+  </si>
+  <si>
+    <t>_strcmpi</t>
+  </si>
+  <si>
+    <t>_strnset_s</t>
+  </si>
+  <si>
+    <t>_strset_s</t>
+  </si>
+  <si>
+    <t>_ui64toa_s</t>
+  </si>
+  <si>
+    <t>_ui64tow_s</t>
+  </si>
+  <si>
+    <t>_ultoa_s</t>
+  </si>
+  <si>
+    <t>_ultow_s</t>
+  </si>
+  <si>
+    <t>_vsnprintf_s</t>
+  </si>
+  <si>
+    <t>_vsnwprintf_s</t>
+  </si>
+  <si>
+    <t>_wmakepath_s</t>
+  </si>
+  <si>
+    <t>_wsplitpath_s</t>
+  </si>
+  <si>
+    <t>memcpy_s</t>
+  </si>
+  <si>
+    <t>memmove_s</t>
+  </si>
+  <si>
+    <t>sprintf_s</t>
+  </si>
+  <si>
+    <t>sscanf_s</t>
+  </si>
+  <si>
+    <t>strcat_s</t>
+  </si>
+  <si>
+    <t>strcpy_s</t>
+  </si>
+  <si>
+    <t>strncat_s</t>
+  </si>
+  <si>
+    <t>strncpy_s</t>
+  </si>
+  <si>
+    <t>strtok_s</t>
+  </si>
+  <si>
+    <t>swprintf_s</t>
+  </si>
+  <si>
+    <t>swscanf_s</t>
+  </si>
+  <si>
+    <t>vsprintf_s</t>
+  </si>
+  <si>
+    <t>vswprintf_s</t>
+  </si>
+  <si>
+    <t>wcscat_s</t>
+  </si>
+  <si>
+    <t>wcsncat_s</t>
+  </si>
+  <si>
+    <t>wcsncpy_s</t>
+  </si>
+  <si>
+    <t>wcstok_s</t>
+  </si>
+  <si>
+    <t>_invalid_parameter</t>
+  </si>
+  <si>
+    <t>_Init_global_epoch</t>
+  </si>
+  <si>
+    <t>_Init_thread_abort</t>
+  </si>
+  <si>
+    <t>_Init_thread_epoch</t>
+  </si>
+  <si>
+    <t>_Init_thread_footer</t>
+  </si>
+  <si>
+    <t>_Init_thread_header</t>
+  </si>
+  <si>
+    <t>_Init_thread_lock</t>
+  </si>
+  <si>
+    <t>_Init_thread_notify</t>
+  </si>
+  <si>
+    <t>_Init_thread_unlock</t>
+  </si>
+  <si>
+    <t>_Init_thread_wait</t>
+  </si>
+  <si>
+    <t>__xl_z</t>
+  </si>
+  <si>
+    <t>_tls_end</t>
+  </si>
+  <si>
+    <t>_tls_index</t>
+  </si>
+  <si>
+    <t>_tls_start</t>
+  </si>
+  <si>
+    <t>_tls_used</t>
+  </si>
+  <si>
+    <t>wcscpy_s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3243,7 +3419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3258,13 +3434,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3279,8 +3470,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3561,18 +3757,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C787"/>
+  <dimension ref="A1:D787"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3582,8 +3781,11 @@
       <c r="C1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3593,8 +3795,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3604,173 +3809,221 @@
       <c r="C3" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3780,8 +4033,11 @@
       <c r="C19" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3791,8 +4047,11 @@
       <c r="C20" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3802,8 +4061,11 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3813,8 +4075,11 @@
       <c r="C22" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3824,8 +4089,11 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3835,8 +4103,11 @@
       <c r="C24" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3846,8 +4117,11 @@
       <c r="C25" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3857,8 +4131,11 @@
       <c r="C26" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3868,8 +4145,11 @@
       <c r="C27" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3879,41 +4159,53 @@
       <c r="C28" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3923,52 +4215,67 @@
       <c r="C32" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3978,19 +4285,25 @@
       <c r="C37" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4000,19 +4313,25 @@
       <c r="C39" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4022,8 +4341,11 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4033,1224 +4355,1683 @@
       <c r="C42" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D63" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D67" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D76" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D78" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D85" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D87" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D89" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="D91" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="D98" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="D100" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="D102" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="D104" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D105" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="D106" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D112" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D113" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D115" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D119" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D120" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="D121" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D122" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="D124" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="D125" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D126" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D128" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="D131" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="D133" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D135" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D137" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="D138" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="D139" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="D140" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="D141" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="D142" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D143" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="D144" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="D145" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="D146" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="D147" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="D148" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D149" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="D150" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D151" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D152" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D153" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D154" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D155" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D156" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D157" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D158" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D159" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D160" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D161" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D162" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D163" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D164" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D165" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D166" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D167" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D168" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D169" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D170" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D171" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D172" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="D173" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D174" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="D175" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D176" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="D177" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D178" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D179" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D180" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D181" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D182" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D183" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D184" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D185" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D186" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D187" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D188" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D189" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D190" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D191" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D192" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D193" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D194" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -5258,7 +6039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -5266,7 +6047,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -5274,7 +6055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -5282,7 +6063,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -5290,7 +6071,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -5298,7 +6079,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -5306,7 +6087,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -5314,7 +6095,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -5322,7 +6103,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -5330,7 +6111,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -5338,7 +6119,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -5346,7 +6127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -5354,7 +6135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5547,10 +6328,10 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5675,10 +6456,10 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5947,10 +6728,10 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5963,10 +6744,10 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6659,10 +7440,10 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6707,10 +7488,10 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="1" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6723,10 +7504,10 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6755,10 +7536,10 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -6779,10 +7560,10 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6811,10 +7592,10 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="1" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6891,10 +7672,10 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="1" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6915,10 +7696,10 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="1" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6939,10 +7720,10 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6987,10 +7768,10 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7035,10 +7816,10 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7075,10 +7856,10 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="1" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7235,10 +8016,10 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7267,10 +8048,10 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="1" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7347,10 +8128,10 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7395,10 +8176,10 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7427,10 +8208,10 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="1" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7499,10 +8280,10 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="1" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7563,10 +8344,10 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="1" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7603,10 +8384,10 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7635,10 +8416,10 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7675,10 +8456,10 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7691,10 +8472,10 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7707,10 +8488,10 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="A502" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="1" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7723,18 +8504,18 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="1" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7779,10 +8560,10 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7803,10 +8584,10 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="1" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7816,10 +8597,10 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="1" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7832,10 +8613,10 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7848,10 +8629,10 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="1" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7864,10 +8645,10 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="1" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7904,10 +8685,10 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="1" t="s">
         <v>525</v>
       </c>
     </row>
@@ -7920,10 +8701,10 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="1" t="s">
         <v>527</v>
       </c>
     </row>
@@ -7936,10 +8717,10 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="1" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7968,10 +8749,10 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="A535" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="1" t="s">
         <v>533</v>
       </c>
     </row>
@@ -7984,10 +8765,10 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="A537" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="1" t="s">
         <v>535</v>
       </c>
     </row>
@@ -8016,10 +8797,10 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="1" t="s">
         <v>539</v>
       </c>
     </row>
@@ -8032,10 +8813,10 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -8080,10 +8861,10 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="1" t="s">
         <v>547</v>
       </c>
     </row>
@@ -8096,10 +8877,10 @@
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -8128,18 +8909,18 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="1" t="s">
         <v>554</v>
       </c>
     </row>
@@ -8152,10 +8933,10 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+      <c r="A558" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -8168,10 +8949,10 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+      <c r="A560" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8184,10 +8965,10 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="A562" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -8232,10 +9013,10 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="1" t="s">
         <v>566</v>
       </c>
     </row>
@@ -8245,10 +9026,10 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8261,10 +9042,10 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="1" t="s">
         <v>569</v>
       </c>
     </row>
@@ -8277,10 +9058,10 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="1" t="s">
         <v>571</v>
       </c>
     </row>
@@ -8309,10 +9090,10 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+      <c r="A578" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="1" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8357,10 +9138,10 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="A584" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="1" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8373,10 +9154,10 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8437,10 +9218,10 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+      <c r="A594" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="1" t="s">
         <v>591</v>
       </c>
     </row>
@@ -8453,10 +9234,10 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="1" t="s">
         <v>593</v>
       </c>
     </row>
@@ -8658,10 +9439,10 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+      <c r="A622" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="1" t="s">
         <v>615</v>
       </c>
     </row>
@@ -8722,10 +9503,10 @@
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="1" t="s">
         <v>623</v>
       </c>
     </row>
@@ -8754,18 +9535,18 @@
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+      <c r="A634" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="1" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+      <c r="A635" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="1" t="s">
         <v>628</v>
       </c>
     </row>
@@ -8778,10 +9559,10 @@
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="1" t="s">
         <v>630</v>
       </c>
     </row>
@@ -8794,10 +9575,10 @@
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+      <c r="A639" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="1" t="s">
         <v>632</v>
       </c>
     </row>
@@ -8994,10 +9775,10 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+      <c r="A664" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="1" t="s">
         <v>657</v>
       </c>
     </row>
@@ -9103,10 +9884,10 @@
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+      <c r="A678" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B678" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -9670,10 +10451,10 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
+      <c r="A750" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B750" s="1" t="s">
         <v>744</v>
       </c>
     </row>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA79B419-239E-42AF-BA13-BAC94A78EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617113B-743F-40B1-80CE-47CFA33E46F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11268" yWindow="4608" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UEFI CRT Symbols List" sheetId="1" r:id="rId1"/>
@@ -3444,7 +3444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3454,6 +3454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3473,10 +3479,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3759,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3768,7 +3774,7 @@
     <col min="1" max="1" width="86.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,7 +5329,7 @@
       <c r="B130" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -5334,7 +5340,7 @@
       <c r="B131" t="s">
         <v>809</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -5345,7 +5351,7 @@
       <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -5356,7 +5362,7 @@
       <c r="B133" t="s">
         <v>132</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -5367,7 +5373,7 @@
       <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -5378,7 +5384,7 @@
       <c r="B135" t="s">
         <v>134</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -5389,7 +5395,7 @@
       <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -5400,7 +5406,7 @@
       <c r="B137" t="s">
         <v>136</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -5411,7 +5417,7 @@
       <c r="B138" t="s">
         <v>810</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -5422,7 +5428,7 @@
       <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -5433,7 +5439,7 @@
       <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -5444,7 +5450,7 @@
       <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -5455,7 +5461,7 @@
       <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5466,7 +5472,7 @@
       <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -5477,7 +5483,7 @@
       <c r="B144" t="s">
         <v>811</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -5488,7 +5494,7 @@
       <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5499,7 +5505,7 @@
       <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -5510,7 +5516,7 @@
       <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -5521,7 +5527,7 @@
       <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5532,7 +5538,7 @@
       <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -5543,7 +5549,7 @@
       <c r="B150" t="s">
         <v>812</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -5554,7 +5560,7 @@
       <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -5565,7 +5571,7 @@
       <c r="B152" t="s">
         <v>151</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -5576,7 +5582,7 @@
       <c r="B153" t="s">
         <v>152</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -5587,7 +5593,7 @@
       <c r="B154" t="s">
         <v>813</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -5598,7 +5604,7 @@
       <c r="B155" t="s">
         <v>154</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5609,7 +5615,7 @@
       <c r="B156" t="s">
         <v>814</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5620,7 +5626,7 @@
       <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" t="s">
         <v>587</v>
       </c>
     </row>
@@ -5631,7 +5637,7 @@
       <c r="B158" t="s">
         <v>815</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5642,7 +5648,7 @@
       <c r="B159" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -5653,7 +5659,7 @@
       <c r="B160" t="s">
         <v>816</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -5664,7 +5670,7 @@
       <c r="B161" t="s">
         <v>159</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" t="s">
         <v>640</v>
       </c>
     </row>
@@ -5675,7 +5681,7 @@
       <c r="B162" t="s">
         <v>160</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -5686,7 +5692,7 @@
       <c r="B163" t="s">
         <v>817</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -5697,7 +5703,7 @@
       <c r="B164" t="s">
         <v>162</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -5708,7 +5714,7 @@
       <c r="B165" t="s">
         <v>163</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -5719,7 +5725,7 @@
       <c r="B166" t="s">
         <v>818</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -5730,7 +5736,7 @@
       <c r="B167" t="s">
         <v>165</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -5741,7 +5747,7 @@
       <c r="B168" t="s">
         <v>819</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -5752,7 +5758,7 @@
       <c r="B169" t="s">
         <v>167</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -5763,7 +5769,7 @@
       <c r="B170" t="s">
         <v>820</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -5774,7 +5780,7 @@
       <c r="B171" t="s">
         <v>169</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -5785,7 +5791,7 @@
       <c r="B172" t="s">
         <v>821</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -5796,7 +5802,7 @@
       <c r="B173" t="s">
         <v>171</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -5807,7 +5813,7 @@
       <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -5818,7 +5824,7 @@
       <c r="B175" t="s">
         <v>822</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -5829,7 +5835,7 @@
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -5840,7 +5846,7 @@
       <c r="B177" t="s">
         <v>823</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -5851,7 +5857,7 @@
       <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -5862,7 +5868,7 @@
       <c r="B179" t="s">
         <v>824</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -5873,7 +5879,7 @@
       <c r="B180" t="s">
         <v>178</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -5884,7 +5890,7 @@
       <c r="B181" t="s">
         <v>179</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -5895,7 +5901,7 @@
       <c r="B182" t="s">
         <v>180</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -5906,7 +5912,7 @@
       <c r="B183" t="s">
         <v>181</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -5917,7 +5923,7 @@
       <c r="B184" t="s">
         <v>825</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -5928,7 +5934,7 @@
       <c r="B185" t="s">
         <v>183</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -5939,7 +5945,7 @@
       <c r="B186" t="s">
         <v>184</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -5950,7 +5956,7 @@
       <c r="B187" t="s">
         <v>826</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -5961,7 +5967,7 @@
       <c r="B188" t="s">
         <v>186</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -5972,7 +5978,7 @@
       <c r="B189" t="s">
         <v>827</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -5983,7 +5989,7 @@
       <c r="B190" t="s">
         <v>188</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -5994,7 +6000,7 @@
       <c r="B191" t="s">
         <v>189</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -6005,7 +6011,7 @@
       <c r="B192" t="s">
         <v>190</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -6016,7 +6022,7 @@
       <c r="B193" t="s">
         <v>191</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -6027,7 +6033,7 @@
       <c r="B194" t="s">
         <v>192</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -6120,18 +6126,18 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6144,10 +6150,10 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6872,10 +6878,10 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>298</v>
       </c>
     </row>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34180DD-46BA-46EB-90A0-E3E15B163C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63430D4E-6A34-4B73-A15D-1E854C9594AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="1296" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="1416" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UEFI CRT Symbols List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1071">
   <si>
     <t>arm64 Common Symbols</t>
   </si>
@@ -3237,6 +3237,10 @@
   </si>
   <si>
     <t>_fpieee_flt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_memicmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3564,10 +3568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C660"/>
+  <dimension ref="A1:C622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6160,2784 +6164,2339 @@
         <v>438</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>442</v>
+        <v>897</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>896</v>
+        <v>447</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>897</v>
+        <v>448</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>447</v>
+        <v>899</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>463</v>
+        <v>905</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>904</v>
+        <v>468</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>466</v>
+        <v>906</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>905</v>
+        <v>471</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>469</v>
+        <v>907</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>906</v>
+        <v>474</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>471</v>
+        <v>908</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>907</v>
+        <v>477</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>908</v>
+        <v>479</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>477</v>
+        <v>909</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>480</v>
+        <v>910</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>909</v>
+        <v>485</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>482</v>
+        <v>911</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>912</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>489</v>
+        <v>914</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>913</v>
+        <v>494</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>491</v>
+        <v>919</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>914</v>
+        <v>506</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>917</v>
+        <v>523</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>500</v>
+        <v>933</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>918</v>
+        <v>539</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>502</v>
+        <v>934</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>506</v>
+        <v>936</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>510</v>
+        <v>938</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>921</v>
+        <v>549</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>512</v>
+        <v>939</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>517</v>
+        <v>551</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>518</v>
+        <v>940</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>922</v>
+        <v>553</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>523</v>
+        <v>944</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>927</v>
+        <v>562</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>928</v>
+        <v>564</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>527</v>
+        <v>946</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>929</v>
+        <v>566</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="B398" s="1" t="s">
-        <v>529</v>
+        <v>945</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>930</v>
+        <v>567</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>531</v>
+        <v>947</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>931</v>
+        <v>569</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>533</v>
+        <v>948</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>926</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>535</v>
+        <v>949</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>932</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>537</v>
+        <v>950</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>933</v>
+        <v>575</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>539</v>
+        <v>951</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>934</v>
+        <v>577</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>541</v>
+        <v>952</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>935</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>543</v>
+        <v>953</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>936</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>545</v>
+        <v>954</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>937</v>
+        <v>583</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>547</v>
+        <v>955</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>938</v>
+        <v>585</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>549</v>
+        <v>956</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>939</v>
+        <v>587</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>551</v>
+        <v>957</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>940</v>
+        <v>589</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>553</v>
+        <v>958</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>563</v>
+        <v>963</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="B436" s="1" t="s">
-        <v>945</v>
+        <v>997</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>567</v>
+        <v>666</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>567</v>
+        <v>666</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="B438" s="1" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>960</v>
+        <v>628</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>595</v>
+        <v>982</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>961</v>
+        <v>630</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>597</v>
+        <v>983</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>962</v>
+        <v>632</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>599</v>
+        <v>984</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>600</v>
+        <v>1068</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>963</v>
+        <v>634</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>601</v>
+        <v>985</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>964</v>
+        <v>636</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>603</v>
+        <v>986</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>997</v>
+        <v>638</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>666</v>
+        <v>987</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="B476" s="1" t="s">
-        <v>965</v>
+        <v>640</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>667</v>
+        <v>988</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>966</v>
+        <v>642</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>605</v>
+        <v>989</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>967</v>
+        <v>644</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>607</v>
+        <v>990</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>968</v>
+        <v>646</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>969</v>
+        <v>648</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>970</v>
+        <v>650</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>614</v>
+        <v>652</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>971</v>
+        <v>991</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>618</v>
+        <v>656</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="B494" s="1" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>628</v>
+        <v>998</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>982</v>
+        <v>669</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>630</v>
+        <v>973</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>983</v>
+        <v>671</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>632</v>
+        <v>974</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>984</v>
+        <v>675</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
-        <v>1068</v>
-      </c>
       <c r="B508" s="1" t="s">
-        <v>634</v>
+        <v>999</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>985</v>
+        <v>676</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>636</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>986</v>
+        <v>678</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>987</v>
+        <v>680</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>641</v>
+        <v>682</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>989</v>
+        <v>684</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>990</v>
+        <v>686</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>648</v>
+        <v>689</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>648</v>
+        <v>689</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>649</v>
+        <v>690</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>649</v>
+        <v>690</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>651</v>
+        <v>692</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>651</v>
+        <v>692</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>652</v>
+        <v>693</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>991</v>
+        <v>693</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>654</v>
+        <v>695</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>992</v>
+        <v>695</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>972</v>
+        <v>697</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="B532" s="1" t="s">
-        <v>993</v>
+        <v>699</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>974</v>
+        <v>711</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="B546" s="1" t="s">
-        <v>999</v>
+        <v>713</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>677</v>
+        <v>715</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1000</v>
+        <v>715</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>678</v>
+        <v>716</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>678</v>
+        <v>978</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>679</v>
+        <v>717</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>679</v>
+        <v>717</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>680</v>
+        <v>718</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>681</v>
+        <v>719</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>681</v>
+        <v>719</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1001</v>
+        <v>720</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>684</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>685</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>687</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>690</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>692</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>694</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>696</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>698</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>700</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1003</v>
+        <v>737</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>702</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1002</v>
+        <v>739</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>704</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>711</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>714</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>978</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>718</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>672</v>
+        <v>757</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>1069</v>
+        <v>758</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>721</v>
+        <v>759</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1007</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>723</v>
+        <v>761</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1008</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>724</v>
+        <v>762</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>724</v>
+        <v>762</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="B598" s="1" t="s">
-        <v>725</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="B599" s="1" t="s">
-        <v>1009</v>
+        <v>673</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>727</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1010</v>
+        <v>764</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>729</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1011</v>
+        <v>766</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>731</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1012</v>
+        <v>768</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1013</v>
+        <v>770</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1014</v>
+        <v>772</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1015</v>
+        <v>774</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1016</v>
+        <v>777</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>743</v>
+        <v>1</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>744</v>
+        <v>70</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>744</v>
+        <v>793</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>745</v>
+        <v>71</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1018</v>
+        <v>71</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>746</v>
+        <v>72</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>746</v>
+        <v>72</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>747</v>
+        <v>92</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1019</v>
+        <v>800</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>748</v>
+        <v>93</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>748</v>
+        <v>93</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>749</v>
+        <v>94</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B636" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B637" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B660" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8949,10 +8508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B111" sqref="B110:B111"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9994,6 +9553,452 @@
         <v>136</v>
       </c>
     </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63430D4E-6A34-4B73-A15D-1E854C9594AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7236C3E-DBFD-42EE-9968-A0F8145E10F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1416" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1072">
   <si>
     <t>arm64 Common Symbols</t>
   </si>
@@ -3241,6 +3241,10 @@
   </si>
   <si>
     <t>_memicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_wcsnset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3568,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C622"/>
+  <dimension ref="A1:C561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A380" sqref="A380"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6164,2339 +6168,1998 @@
         <v>438</v>
       </c>
     </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>899</v>
+        <v>469</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>452</v>
+        <v>906</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>469</v>
+        <v>925</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>906</v>
+        <v>522</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>472</v>
+        <v>933</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>907</v>
+        <v>539</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>474</v>
+        <v>935</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>908</v>
+        <v>543</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>476</v>
+        <v>936</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>478</v>
+        <v>937</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>480</v>
+        <v>939</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>909</v>
+        <v>551</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>482</v>
+        <v>944</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>910</v>
+        <v>563</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>492</v>
+        <v>956</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>914</v>
+        <v>587</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>494</v>
+        <v>957</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>504</v>
+        <v>589</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>919</v>
+        <v>589</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>505</v>
+        <v>958</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>507</v>
+        <v>592</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>507</v>
+        <v>959</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>924</v>
+        <v>593</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>520</v>
+        <v>960</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>925</v>
+        <v>595</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>522</v>
+        <v>961</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>936</v>
+        <v>997</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>545</v>
+        <v>666</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>545</v>
+        <v>666</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="B377" s="1" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>547</v>
+        <v>667</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>547</v>
+        <v>667</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>554</v>
+        <v>610</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>554</v>
+        <v>969</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>555</v>
+        <v>611</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>941</v>
+        <v>611</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>556</v>
+        <v>970</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>557</v>
+        <v>613</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>942</v>
+        <v>613</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>558</v>
+        <v>971</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>559</v>
+        <v>615</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>943</v>
+        <v>615</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>560</v>
+        <v>975</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>944</v>
+        <v>617</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>562</v>
+        <v>618</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>562</v>
+        <v>976</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>563</v>
+        <v>619</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>563</v>
+        <v>619</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>564</v>
+        <v>620</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>564</v>
+        <v>977</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>565</v>
+        <v>621</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>946</v>
+        <v>621</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>566</v>
+        <v>622</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>566</v>
+        <v>979</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="B398" s="1" t="s">
-        <v>945</v>
+        <v>623</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>567</v>
+        <v>980</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>947</v>
+        <v>625</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>569</v>
+        <v>981</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>948</v>
+        <v>627</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>949</v>
+        <v>982</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>577</v>
+        <v>1068</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>577</v>
+        <v>634</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>954</v>
+        <v>987</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>955</v>
+        <v>988</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>958</v>
+        <v>647</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>959</v>
+        <v>649</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>960</v>
+        <v>651</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>595</v>
+        <v>991</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>961</v>
+        <v>653</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>597</v>
+        <v>992</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>962</v>
+        <v>655</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>599</v>
+        <v>972</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>963</v>
+        <v>657</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="B433" s="1" t="s">
-        <v>601</v>
+        <v>993</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>602</v>
+        <v>658</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>964</v>
+        <v>658</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>603</v>
+        <v>659</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>603</v>
+        <v>994</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>997</v>
+        <v>660</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>666</v>
+        <v>995</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="B438" s="1" t="s">
-        <v>965</v>
+        <v>662</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>667</v>
+        <v>996</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>966</v>
+        <v>664</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>605</v>
+        <v>668</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>605</v>
+        <v>998</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>967</v>
+        <v>669</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>607</v>
+        <v>670</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>607</v>
+        <v>973</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>968</v>
+        <v>671</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>609</v>
+        <v>974</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>969</v>
+        <v>675</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="B447" s="1" t="s">
-        <v>611</v>
+        <v>999</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>970</v>
+        <v>676</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>613</v>
+        <v>677</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>613</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>971</v>
+        <v>678</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>615</v>
+        <v>679</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>615</v>
+        <v>679</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>975</v>
+        <v>680</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>618</v>
+        <v>682</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>976</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>619</v>
+        <v>683</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>619</v>
+        <v>683</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>977</v>
+        <v>684</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>621</v>
+        <v>685</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>621</v>
+        <v>685</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>622</v>
+        <v>686</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>979</v>
+        <v>686</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>623</v>
+        <v>687</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>623</v>
+        <v>687</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>624</v>
+        <v>688</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>980</v>
+        <v>688</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>981</v>
+        <v>690</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>628</v>
+        <v>692</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>628</v>
+        <v>692</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>982</v>
+        <v>693</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>630</v>
+        <v>694</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>631</v>
+        <v>695</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>983</v>
+        <v>695</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>633</v>
+        <v>697</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>984</v>
+        <v>697</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>1068</v>
+        <v>698</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>635</v>
+        <v>699</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>985</v>
+        <v>699</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>636</v>
+        <v>700</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>636</v>
+        <v>700</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>637</v>
+        <v>701</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>639</v>
+        <v>703</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>642</v>
+        <v>704</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>645</v>
+        <v>709</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>646</v>
+        <v>710</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>646</v>
+        <v>710</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>649</v>
+        <v>713</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>651</v>
+        <v>715</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>651</v>
+        <v>715</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>653</v>
+        <v>717</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>654</v>
+        <v>718</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>992</v>
+        <v>718</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>655</v>
+        <v>719</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>655</v>
+        <v>719</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>656</v>
+        <v>720</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>972</v>
+        <v>720</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="1" t="s">
-        <v>993</v>
+      <c r="A494" s="1" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>658</v>
+        <v>721</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>658</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>659</v>
+        <v>722</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>994</v>
+        <v>722</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>660</v>
+        <v>723</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>660</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>661</v>
+        <v>724</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>995</v>
+        <v>724</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>662</v>
+        <v>725</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>662</v>
+        <v>725</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>663</v>
+        <v>726</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>973</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>671</v>
+        <v>731</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>671</v>
+        <v>731</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>974</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="B508" s="1" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>676</v>
+        <v>735</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>679</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>680</v>
+        <v>739</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>680</v>
+        <v>739</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>681</v>
+        <v>740</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>681</v>
+        <v>740</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>682</v>
+        <v>741</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>684</v>
+        <v>743</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>684</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>686</v>
+        <v>745</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>686</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>688</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>690</v>
+        <v>749</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>690</v>
+        <v>749</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>691</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>692</v>
+        <v>751</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>692</v>
+        <v>751</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>693</v>
+        <v>752</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>693</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>694</v>
+        <v>753</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>694</v>
+        <v>753</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>695</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>696</v>
+        <v>755</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>696</v>
+        <v>755</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>697</v>
+        <v>756</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>697</v>
+        <v>756</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>698</v>
+        <v>757</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>698</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>700</v>
+        <v>759</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>700</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>701</v>
+        <v>760</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1003</v>
+        <v>760</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>702</v>
+        <v>761</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>702</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>703</v>
+        <v>762</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1002</v>
+        <v>762</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="B537" s="1" t="s">
-        <v>704</v>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1005</v>
+        <v>764</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>708</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1006</v>
+        <v>766</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>710</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>711</v>
+        <v>768</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>711</v>
+        <v>768</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>712</v>
+        <v>769</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>712</v>
+        <v>769</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>978</v>
+        <v>773</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>717</v>
+        <v>774</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>717</v>
+        <v>774</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>672</v>
+        <v>778</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>1069</v>
+        <v>1</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>721</v>
+        <v>70</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1007</v>
+        <v>793</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>722</v>
+        <v>71</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>722</v>
+        <v>71</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>723</v>
+        <v>72</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1008</v>
+        <v>72</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>724</v>
+        <v>92</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>724</v>
+        <v>800</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>725</v>
+        <v>93</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>725</v>
+        <v>93</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>726</v>
+        <v>94</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B592" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B598" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B599" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B608" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B614" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B622" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8508,10 +8171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9999,6 +9662,348 @@
         <v>466</v>
       </c>
     </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7236C3E-DBFD-42EE-9968-A0F8145E10F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AB8A0-2D21-4BE4-92F4-029C2A007EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1416" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3572,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C561"/>
+  <dimension ref="A1:C525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4122,42 +4122,42 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,3996 +4170,3708 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>816</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>817</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>817</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>162</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>821</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>823</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>176</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>824</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>178</v>
+        <v>829</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
+        <v>830</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>825</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>183</v>
+        <v>831</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>826</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>828</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>197</v>
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>829</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>830</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>831</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>832</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>833</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>214</v>
+        <v>834</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>835</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>218</v>
+        <v>837</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>220</v>
+        <v>842</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>222</v>
+        <v>845</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>224</v>
+        <v>849</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>834</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>835</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>228</v>
+        <v>850</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>836</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>837</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>232</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>839</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>242</v>
+        <v>852</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>840</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>244</v>
+        <v>853</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>841</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>843</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>844</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>845</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>849</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>850</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>851</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>852</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>853</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>854</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>291</v>
+        <v>860</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>856</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>294</v>
+        <v>861</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>296</v>
+        <v>862</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>857</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>298</v>
+        <v>863</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>858</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>300</v>
+        <v>864</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>302</v>
+        <v>865</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>304</v>
+        <v>866</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>307</v>
+        <v>867</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>310</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>313</v>
+        <v>869</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>315</v>
+        <v>870</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>317</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>320</v>
+        <v>872</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>324</v>
+        <v>873</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>859</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>860</v>
+        <v>363</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>329</v>
+        <v>874</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>861</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>864</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>342</v>
+        <v>879</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>867</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>872</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>357</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>359</v>
+        <v>885</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>873</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>361</v>
+        <v>886</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>364</v>
+        <v>887</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>874</v>
+        <v>401</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>367</v>
+        <v>888</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>875</v>
+        <v>404</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>876</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>877</v>
+        <v>410</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>375</v>
+        <v>889</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>878</v>
+        <v>412</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>880</v>
+        <v>418</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>881</v>
+        <v>421</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>392</v>
+        <v>893</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>884</v>
+        <v>429</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>394</v>
+        <v>894</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>885</v>
+        <v>431</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>886</v>
+        <v>433</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>887</v>
+        <v>436</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>406</v>
+        <v>899</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>409</v>
+        <v>905</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>889</v>
+        <v>469</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>412</v>
+        <v>906</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>890</v>
+        <v>472</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>415</v>
+        <v>908</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>421</v>
+        <v>914</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>422</v>
+        <v>494</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>422</v>
+        <v>494</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>892</v>
+        <v>506</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>427</v>
+        <v>924</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>893</v>
+        <v>520</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>429</v>
+        <v>925</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>894</v>
+        <v>522</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>432</v>
+        <v>933</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>433</v>
+        <v>539</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>433</v>
+        <v>539</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>434</v>
+        <v>542</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>434</v>
+        <v>935</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>435</v>
+        <v>543</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>435</v>
+        <v>543</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>436</v>
+        <v>544</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>436</v>
+        <v>936</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>437</v>
+        <v>545</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>437</v>
+        <v>545</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>438</v>
+        <v>546</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>438</v>
+        <v>937</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>446</v>
+        <v>547</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>897</v>
+        <v>547</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>447</v>
+        <v>939</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>451</v>
+        <v>561</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>899</v>
+        <v>944</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>452</v>
+        <v>562</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>452</v>
+        <v>562</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>453</v>
+        <v>563</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>453</v>
+        <v>563</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>467</v>
+        <v>564</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>905</v>
+        <v>564</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>468</v>
+        <v>580</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>468</v>
+        <v>953</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>469</v>
+        <v>581</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>469</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>470</v>
+        <v>582</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>906</v>
+        <v>954</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>471</v>
+        <v>583</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>471</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>472</v>
+        <v>955</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>475</v>
+        <v>585</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>908</v>
+        <v>585</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>476</v>
+        <v>586</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>476</v>
+        <v>956</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>477</v>
+        <v>587</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>477</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>478</v>
+        <v>957</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>479</v>
+        <v>589</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>479</v>
+        <v>589</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>480</v>
+        <v>958</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>914</v>
+        <v>591</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>494</v>
+        <v>959</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>504</v>
+        <v>593</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>919</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>505</v>
+        <v>594</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>505</v>
+        <v>960</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>506</v>
+        <v>595</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>506</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>507</v>
+        <v>596</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>507</v>
+        <v>961</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>924</v>
+        <v>597</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>520</v>
+        <v>962</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>925</v>
+        <v>599</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>522</v>
+        <v>963</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>933</v>
+        <v>964</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>542</v>
+        <v>665</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>935</v>
+        <v>997</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>543</v>
+        <v>666</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>543</v>
+        <v>666</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="B341" s="1" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>545</v>
+        <v>667</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>545</v>
+        <v>667</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>563</v>
+        <v>969</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>953</v>
+        <v>970</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>954</v>
+        <v>971</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>958</v>
+        <v>979</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>959</v>
+        <v>980</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>960</v>
+        <v>981</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>961</v>
+        <v>628</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>597</v>
+        <v>982</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>962</v>
+        <v>630</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>599</v>
+        <v>983</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>963</v>
+        <v>632</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>601</v>
+        <v>984</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>602</v>
+        <v>1068</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>964</v>
+        <v>634</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>603</v>
+        <v>985</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>997</v>
+        <v>636</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>666</v>
+        <v>986</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>638</v>
+      </c>
       <c r="B377" s="1" t="s">
-        <v>965</v>
+        <v>638</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>667</v>
+        <v>987</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>966</v>
+        <v>640</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>605</v>
+        <v>988</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>967</v>
+        <v>642</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>607</v>
+        <v>989</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>968</v>
+        <v>644</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>609</v>
+        <v>990</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>969</v>
+        <v>646</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>970</v>
+        <v>648</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>971</v>
+        <v>650</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>976</v>
+        <v>992</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="B397" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>624</v>
+        <v>659</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>625</v>
+        <v>660</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>626</v>
+        <v>661</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>628</v>
+        <v>996</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>982</v>
+        <v>664</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>630</v>
+        <v>998</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>983</v>
+        <v>669</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>632</v>
+        <v>670</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>632</v>
+        <v>973</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>633</v>
+        <v>671</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>984</v>
+        <v>671</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>1068</v>
+        <v>674</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>634</v>
+        <v>974</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>985</v>
+        <v>675</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="B411" s="1" t="s">
-        <v>636</v>
+        <v>999</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>986</v>
+        <v>676</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>638</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>987</v>
+        <v>678</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>988</v>
+        <v>680</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>990</v>
+        <v>684</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>991</v>
+        <v>691</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>992</v>
+        <v>693</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>972</v>
+        <v>695</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>697</v>
+      </c>
       <c r="B433" s="1" t="s">
-        <v>993</v>
+        <v>697</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>994</v>
+        <v>699</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>670</v>
+        <v>707</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>973</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>711</v>
+      </c>
       <c r="B447" s="1" t="s">
-        <v>999</v>
+        <v>711</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1000</v>
+        <v>713</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>680</v>
+        <v>978</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1001</v>
+        <v>718</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>686</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>687</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>689</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>692</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>694</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>696</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>698</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>700</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1003</v>
+        <v>735</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>702</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1002</v>
+        <v>737</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>704</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>711</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>713</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>718</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>720</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>672</v>
+        <v>755</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>1069</v>
+        <v>756</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>725</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1009</v>
+        <v>762</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="B501" s="1" t="s">
-        <v>727</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="B502" s="1" t="s">
-        <v>1010</v>
+        <v>673</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>729</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1011</v>
+        <v>764</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>731</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1012</v>
+        <v>766</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>733</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1013</v>
+        <v>768</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1014</v>
+        <v>770</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1015</v>
+        <v>772</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1016</v>
+        <v>775</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1017</v>
+        <v>777</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>745</v>
+        <v>1</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>746</v>
+        <v>70</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>746</v>
+        <v>793</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>747</v>
+        <v>71</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1019</v>
+        <v>71</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>748</v>
+        <v>72</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>748</v>
+        <v>72</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>749</v>
+        <v>92</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>749</v>
+        <v>800</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>750</v>
+        <v>93</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1020</v>
+        <v>93</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>751</v>
+        <v>94</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B537" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B538" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B561" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8171,10 +7883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10004,6 +9716,294 @@
         <v>492</v>
       </c>
     </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AB8A0-2D21-4BE4-92F4-029C2A007EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48ED27C-C4D0-49BC-A7D0-0FC9F376BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1416" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3572,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C525"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4986,2892 +4986,2692 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>329</v>
+        <v>862</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>861</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>331</v>
+        <v>863</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>862</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>333</v>
+        <v>864</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>863</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>335</v>
+        <v>865</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>864</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>337</v>
+        <v>866</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>865</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>348</v>
+        <v>870</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>869</v>
+        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>350</v>
+        <v>871</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>870</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>872</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>357</v>
+        <v>873</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>873</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>362</v>
+        <v>874</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>367</v>
+        <v>876</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>875</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>876</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>371</v>
+        <v>877</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>373</v>
+        <v>878</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>877</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>375</v>
+        <v>879</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>878</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>879</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>379</v>
+        <v>880</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>384</v>
+        <v>882</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>881</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>386</v>
+        <v>883</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>882</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>883</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>390</v>
+        <v>884</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>392</v>
+        <v>885</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>884</v>
+        <v>396</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>394</v>
+        <v>886</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>885</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>888</v>
+        <v>406</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>408</v>
+        <v>889</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>890</v>
+        <v>417</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>420</v>
+        <v>891</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>422</v>
+        <v>892</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>891</v>
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>427</v>
+        <v>894</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>893</v>
+        <v>431</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>894</v>
+        <v>433</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>436</v>
+        <v>897</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>908</v>
+        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>478</v>
+        <v>919</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>914</v>
+        <v>507</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>494</v>
+        <v>924</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>919</v>
+        <v>520</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>505</v>
+        <v>925</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>523</v>
+        <v>939</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>933</v>
+        <v>551</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>539</v>
+        <v>944</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>935</v>
+        <v>562</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>936</v>
+        <v>564</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>545</v>
+        <v>596</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>545</v>
+        <v>961</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>937</v>
+        <v>597</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>547</v>
+        <v>962</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>939</v>
+        <v>599</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>551</v>
+        <v>963</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>944</v>
+        <v>601</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>562</v>
+        <v>964</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>564</v>
+        <v>997</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>953</v>
+        <v>666</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="B316" s="1" t="s">
-        <v>581</v>
+        <v>965</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>954</v>
+        <v>667</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>583</v>
+        <v>966</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>955</v>
+        <v>605</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>585</v>
+        <v>967</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>956</v>
+        <v>607</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>587</v>
+        <v>968</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>957</v>
+        <v>609</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>589</v>
+        <v>969</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>958</v>
+        <v>611</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>591</v>
+        <v>970</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>959</v>
+        <v>613</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>593</v>
+        <v>971</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>960</v>
+        <v>615</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>595</v>
+        <v>975</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>961</v>
+        <v>617</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>597</v>
+        <v>976</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>962</v>
+        <v>619</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>599</v>
+        <v>977</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>963</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>601</v>
+        <v>979</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>964</v>
+        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>603</v>
+        <v>980</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>997</v>
+        <v>625</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>666</v>
+        <v>981</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="B341" s="1" t="s">
-        <v>965</v>
+        <v>627</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>609</v>
+        <v>1068</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>979</v>
+        <v>647</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>980</v>
+        <v>649</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>981</v>
+        <v>651</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>627</v>
+        <v>991</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="B372" s="1" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>1068</v>
+        <v>658</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="B386" s="1" t="s">
-        <v>647</v>
+        <v>999</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>649</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>991</v>
+        <v>680</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>972</v>
+        <v>684</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="B397" s="1" t="s">
-        <v>993</v>
+        <v>686</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>994</v>
+        <v>688</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>995</v>
+        <v>690</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>996</v>
+        <v>692</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>998</v>
+        <v>694</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>973</v>
+        <v>696</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>974</v>
+        <v>698</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="B411" s="1" t="s">
-        <v>999</v>
+        <v>700</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>676</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1000</v>
+        <v>702</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>678</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>684</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>691</v>
+        <v>978</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>697</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>698</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>700</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1003</v>
+        <v>724</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>704</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>711</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>713</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>715</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>978</v>
+        <v>739</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>718</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>720</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>672</v>
+        <v>744</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>1069</v>
+        <v>745</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1007</v>
+        <v>746</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>722</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1008</v>
+        <v>748</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>725</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1009</v>
+        <v>751</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>727</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1010</v>
+        <v>753</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>729</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1011</v>
+        <v>755</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="B476" s="1" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="B477" s="1" t="s">
-        <v>739</v>
+        <v>673</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>740</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1016</v>
+        <v>764</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>742</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1017</v>
+        <v>766</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>744</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1018</v>
+        <v>768</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1019</v>
+        <v>770</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1020</v>
+        <v>773</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1021</v>
+        <v>775</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1022</v>
+        <v>777</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>756</v>
+        <v>1</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>757</v>
+        <v>70</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1023</v>
+        <v>793</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>758</v>
+        <v>71</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>758</v>
+        <v>71</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>759</v>
+        <v>72</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1024</v>
+        <v>72</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>760</v>
+        <v>92</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>760</v>
+        <v>800</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>761</v>
+        <v>93</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1025</v>
+        <v>93</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>762</v>
+        <v>94</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B501" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B502" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B525" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7883,10 +7683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10004,6 +9804,206 @@
         <v>298</v>
       </c>
     </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48ED27C-C4D0-49BC-A7D0-0FC9F376BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2B2FC7-19E3-40D9-A5FC-C55947D8FC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1416" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2515,9 +2515,6 @@
     <t>d:\os\obj\amd64fre\minkernel\crts\crtw32\misc\nt\objfre\amd64\div.obj</t>
   </si>
   <si>
-    <t>d:\os\obj\amd64fre\minkernel\crts\crtw32\misc\nt\objfre\amd64\glstatus.obj</t>
-  </si>
-  <si>
     <t>d:\os\obj\amd64fre\minkernel\crts\crtw32\misc\nt\objfre\amd64\gs_cookie.obj</t>
   </si>
   <si>
@@ -3245,6 +3242,10 @@
   </si>
   <si>
     <t>_wcsnset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\os\obj\amd64fre\minkernel\crts\crtw32\misc\nt\objfre\amd64\glstatus.obj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3572,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3594,7 +3595,7 @@
         <v>779</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,7 +3617,7 @@
         <v>781</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,7 +3628,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,7 +3650,7 @@
         <v>782</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3660,7 +3661,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3671,7 +3672,7 @@
         <v>784</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,7 +3683,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,7 +3694,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3704,7 +3705,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3715,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3726,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3737,7 +3738,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3748,7 +3749,7 @@
         <v>785</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3759,7 +3760,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3770,7 +3771,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3781,7 +3782,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3792,7 +3793,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,7 +3804,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3825,7 +3826,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3847,7 +3848,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3858,7 +3859,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,7 +3870,7 @@
         <v>790</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,7 +3881,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,7 +3892,7 @@
         <v>791</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,7 +3903,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3913,7 +3914,7 @@
         <v>792</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3924,114 +3925,114 @@
         <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>802</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
@@ -4039,3639 +4040,3447 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>804</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>805</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>813</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>815</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>156</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>816</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>160</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>817</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>820</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>824</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>178</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>826</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>825</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>183</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>829</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>199</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>830</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>201</v>
+        <v>832</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>831</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>832</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>833</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>833</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>834</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>222</v>
+        <v>836</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>224</v>
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>834</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>226</v>
+        <v>844</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>835</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>228</v>
+        <v>848</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>837</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>842</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>248</v>
+        <v>849</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>845</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>849</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>272</v>
+        <v>850</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>274</v>
+        <v>851</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>850</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>276</v>
+        <v>852</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>852</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>853</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>858</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>318</v>
+        <v>860</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>320</v>
+        <v>865</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>323</v>
+        <v>866</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>859</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>326</v>
+        <v>867</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>861</v>
+        <v>347</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>865</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>339</v>
+        <v>872</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>866</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>867</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>344</v>
+        <v>874</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>869</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>350</v>
+        <v>876</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>870</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>352</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>871</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>354</v>
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>872</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>358</v>
+        <v>879</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>873</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>361</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>363</v>
+        <v>881</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>875</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>369</v>
+        <v>883</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>876</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>371</v>
+        <v>884</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>373</v>
+        <v>885</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>877</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>879</v>
+        <v>402</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>379</v>
+        <v>887</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>880</v>
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>881</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>883</v>
+        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>390</v>
+        <v>889</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>884</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>885</v>
+        <v>419</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>886</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>399</v>
+        <v>890</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>887</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>401</v>
+        <v>891</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>888</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>404</v>
+        <v>892</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>406</v>
+        <v>893</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>889</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>890</v>
+        <v>438</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>415</v>
+        <v>896</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>418</v>
+        <v>898</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>421</v>
+        <v>904</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>891</v>
+        <v>469</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>424</v>
+        <v>905</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>892</v>
+        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>427</v>
+        <v>907</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>893</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>894</v>
+        <v>478</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>433</v>
+        <v>918</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>437</v>
+        <v>923</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>897</v>
+        <v>924</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>451</v>
+        <v>538</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>453</v>
+        <v>546</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>453</v>
+        <v>936</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>905</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>468</v>
+        <v>938</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>906</v>
+        <v>943</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>908</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>476</v>
+        <v>596</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>476</v>
+        <v>960</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>477</v>
+        <v>597</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>477</v>
+        <v>597</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>478</v>
+        <v>598</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>478</v>
+        <v>961</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>479</v>
+        <v>599</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>479</v>
+        <v>599</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>480</v>
+        <v>962</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>504</v>
+        <v>601</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>919</v>
+        <v>601</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>505</v>
+        <v>602</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>505</v>
+        <v>963</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>507</v>
+        <v>665</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>507</v>
+        <v>996</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>519</v>
+        <v>666</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>924</v>
+        <v>666</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="B292" s="1" t="s">
-        <v>520</v>
+        <v>964</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>521</v>
+        <v>667</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>925</v>
+        <v>667</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>522</v>
+        <v>604</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>522</v>
+        <v>965</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>937</v>
+        <v>967</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>944</v>
+        <v>969</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>563</v>
+        <v>970</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>964</v>
+        <v>978</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>665</v>
+        <v>624</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>666</v>
+        <v>625</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>666</v>
+        <v>625</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="B316" s="1" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>966</v>
+        <v>628</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>605</v>
+        <v>981</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>967</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>607</v>
+        <v>982</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>968</v>
+        <v>632</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>609</v>
+        <v>983</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>610</v>
+        <v>1067</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>969</v>
+        <v>634</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>611</v>
+        <v>984</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>970</v>
+        <v>636</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>613</v>
+        <v>985</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>971</v>
+        <v>638</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>615</v>
+        <v>986</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>975</v>
+        <v>640</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>617</v>
+        <v>987</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>976</v>
+        <v>642</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>619</v>
+        <v>988</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>977</v>
+        <v>644</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>621</v>
+        <v>989</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>979</v>
+        <v>646</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>980</v>
+        <v>648</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>981</v>
+        <v>650</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>628</v>
+        <v>990</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>982</v>
+        <v>653</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>630</v>
+        <v>991</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>983</v>
+        <v>655</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>632</v>
+        <v>971</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>984</v>
+        <v>657</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>1068</v>
-      </c>
       <c r="B348" s="1" t="s">
-        <v>634</v>
+        <v>992</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>985</v>
+        <v>658</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>636</v>
+        <v>993</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>986</v>
+        <v>660</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>638</v>
+        <v>994</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>987</v>
+        <v>662</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>640</v>
+        <v>995</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>988</v>
+        <v>664</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>642</v>
+        <v>997</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>989</v>
+        <v>669</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>644</v>
+        <v>972</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>990</v>
+        <v>671</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>646</v>
+        <v>973</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="B362" s="1" t="s">
-        <v>648</v>
+        <v>998</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>650</v>
+        <v>999</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>991</v>
+        <v>679</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>992</v>
+        <v>681</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>655</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>972</v>
+        <v>683</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="B372" s="1" t="s">
-        <v>993</v>
+        <v>685</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>994</v>
+        <v>687</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>995</v>
+        <v>689</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>996</v>
+        <v>691</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>998</v>
+        <v>693</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>973</v>
+        <v>695</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>974</v>
+        <v>697</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="B386" s="1" t="s">
-        <v>999</v>
+        <v>699</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>679</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>681</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1001</v>
+        <v>708</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>683</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>690</v>
+        <v>977</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>696</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>697</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>699</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1003</v>
+        <v>725</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>702</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1002</v>
+        <v>727</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>704</v>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1005</v>
+        <v>731</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>708</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1006</v>
+        <v>733</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>710</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>712</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>714</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>978</v>
+        <v>740</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>717</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>719</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>672</v>
+        <v>745</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>1069</v>
+        <v>746</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1008</v>
+        <v>749</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>724</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1011</v>
+        <v>756</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>731</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1012</v>
+        <v>758</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>733</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1013</v>
+        <v>760</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>735</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1014</v>
+        <v>762</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="B450" s="1" t="s">
-        <v>737</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="B451" s="1" t="s">
-        <v>1015</v>
+        <v>673</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>739</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1018</v>
+        <v>769</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1019</v>
+        <v>771</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1020</v>
+        <v>774</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1021</v>
+        <v>776</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1022</v>
+        <v>778</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>755</v>
+        <v>1</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>756</v>
+        <v>70</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>756</v>
+        <v>793</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>757</v>
+        <v>71</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1023</v>
+        <v>71</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>758</v>
+        <v>72</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>758</v>
+        <v>72</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>759</v>
+        <v>92</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1024</v>
+        <v>800</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>760</v>
+        <v>93</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>760</v>
+        <v>93</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>761</v>
+        <v>94</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B500" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7683,10 +7492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7917,7 +7726,7 @@
         <v>233</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7981,7 +7790,7 @@
         <v>255</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8013,7 +7822,7 @@
         <v>259</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8093,7 +7902,7 @@
         <v>269</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8421,7 +8230,7 @@
         <v>705</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8733,7 +8542,7 @@
         <v>439</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8749,7 +8558,7 @@
         <v>441</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8765,7 +8574,7 @@
         <v>495</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8781,7 +8590,7 @@
         <v>497</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8797,7 +8606,7 @@
         <v>499</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -8813,7 +8622,7 @@
         <v>501</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -8837,7 +8646,7 @@
         <v>508</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -8861,7 +8670,7 @@
         <v>511</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -8891,7 +8700,7 @@
         <v>513</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -8907,7 +8716,7 @@
         <v>515</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -8923,7 +8732,7 @@
         <v>524</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -8939,7 +8748,7 @@
         <v>526</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -8955,7 +8764,7 @@
         <v>528</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -8971,7 +8780,7 @@
         <v>530</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -8987,7 +8796,7 @@
         <v>532</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -9003,7 +8812,7 @@
         <v>534</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -9019,7 +8828,7 @@
         <v>536</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -9035,7 +8844,7 @@
         <v>443</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -9059,7 +8868,7 @@
         <v>449</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,7 +8884,7 @@
         <v>454</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -9099,7 +8908,7 @@
         <v>457</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -9115,7 +8924,7 @@
         <v>459</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -9139,7 +8948,7 @@
         <v>462</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -9155,7 +8964,7 @@
         <v>464</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -9179,7 +8988,7 @@
         <v>540</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -9195,7 +9004,7 @@
         <v>548</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -9211,7 +9020,7 @@
         <v>552</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -9235,7 +9044,7 @@
         <v>555</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -9251,7 +9060,7 @@
         <v>557</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -9267,7 +9076,7 @@
         <v>559</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -9283,7 +9092,7 @@
         <v>565</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -9297,7 +9106,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -9313,7 +9122,7 @@
         <v>568</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -9329,7 +9138,7 @@
         <v>570</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -9345,7 +9154,7 @@
         <v>572</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -9361,7 +9170,7 @@
         <v>574</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -9377,7 +9186,7 @@
         <v>576</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -9393,7 +9202,7 @@
         <v>578</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -9401,7 +9210,7 @@
         <v>579</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -9409,7 +9218,7 @@
         <v>473</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -9425,7 +9234,7 @@
         <v>481</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9449,7 +9258,7 @@
         <v>484</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -9465,7 +9274,7 @@
         <v>486</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -9481,7 +9290,7 @@
         <v>488</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -9497,7 +9306,7 @@
         <v>490</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -9609,7 +9418,7 @@
         <v>229</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -9625,7 +9434,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -9641,7 +9450,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -9657,7 +9466,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -9673,7 +9482,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -9689,7 +9498,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -9705,7 +9514,7 @@
         <v>286</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -9729,7 +9538,7 @@
         <v>289</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9761,7 +9570,7 @@
         <v>293</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -9793,7 +9602,7 @@
         <v>297</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -9809,7 +9618,7 @@
         <v>542</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -9825,7 +9634,7 @@
         <v>544</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -9841,7 +9650,7 @@
         <v>580</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -9857,7 +9666,7 @@
         <v>582</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -9873,7 +9682,7 @@
         <v>584</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -9889,7 +9698,7 @@
         <v>586</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -9905,7 +9714,7 @@
         <v>588</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -9921,7 +9730,7 @@
         <v>590</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -9937,7 +9746,7 @@
         <v>592</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -9953,7 +9762,7 @@
         <v>594</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -9969,7 +9778,7 @@
         <v>493</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -9985,7 +9794,7 @@
         <v>327</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -10002,6 +9811,198 @@
       </c>
       <c r="B289" s="1" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2B2FC7-19E3-40D9-A5FC-C55947D8FC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54244FA-1B9F-49D1-9086-720570B7E74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1416" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1944" windowWidth="34560" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UEFI CRT Symbols List" sheetId="1" r:id="rId1"/>
@@ -2968,9 +2968,6 @@
     <t>d:\os\obj\amd64fre\minkernel\crts\fpw32\tran\nt\objfre\amd64\amd64_modf.obj</t>
   </si>
   <si>
-    <t>d:\os\obj\amd64fre\minkernel\crts\fpw32\tran\nt\objfre\amd64\amd64_sincos.obj</t>
-  </si>
-  <si>
     <t>d:\os\obj\amd64fre\minkernel\crts\fpw32\tran\nt\objfre\amd64\amd64_sqrt.obj</t>
   </si>
   <si>
@@ -3246,6 +3243,10 @@
   </si>
   <si>
     <t>d:\os\obj\amd64fre\minkernel\crts\crtw32\misc\nt\objfre\amd64\glstatus.obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\os\obj\amd64fre\minkernel\crts\fpw32\tran\nt\objfre\amd64\amd64_sincos.obj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3573,10 +3574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C474"/>
+  <dimension ref="A1:C447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3595,7 +3596,7 @@
         <v>779</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3617,7 +3618,7 @@
         <v>781</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3628,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3639,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3650,7 +3651,7 @@
         <v>782</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3661,7 +3662,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,7 +3673,7 @@
         <v>784</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3683,7 +3684,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,7 +3695,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3705,7 +3706,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,7 +3717,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,7 +3728,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,7 +3739,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,7 +3750,7 @@
         <v>785</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +3761,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,7 +3772,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,7 +3783,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,7 +3794,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,7 +3827,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,7 +3849,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,7 +3860,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3871,7 @@
         <v>790</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3881,7 +3882,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,7 +3893,7 @@
         <v>791</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3903,7 +3904,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3915,7 @@
         <v>792</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +3926,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3936,7 +3937,7 @@
         <v>797</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,7 +3948,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +3959,7 @@
         <v>799</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3969,7 +3970,7 @@
         <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3980,7 +3981,7 @@
         <v>802</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3991,7 +3992,7 @@
         <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,7 +4003,7 @@
         <v>804</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,7 +4014,7 @@
         <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4024,7 +4025,7 @@
         <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,7 +4047,7 @@
         <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,7 +4319,7 @@
         <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4331,3156 +4332,2940 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>831</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>832</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>222</v>
+        <v>833</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>224</v>
+        <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>833</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>226</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>834</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>228</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>836</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>844</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>841</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>248</v>
+        <v>848</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>844</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>848</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>272</v>
+        <v>849</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>849</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>276</v>
+        <v>852</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>851</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>852</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>857</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>318</v>
+        <v>860</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>320</v>
+        <v>865</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>323</v>
+        <v>867</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>860</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>331</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>865</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>341</v>
+        <v>869</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>868</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>872</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>361</v>
+        <v>876</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>363</v>
+        <v>877</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>875</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>372</v>
+        <v>879</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>876</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>375</v>
+        <v>880</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>877</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>377</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>878</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>379</v>
+        <v>882</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>879</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>383</v>
+        <v>883</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>882</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>390</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>884</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>885</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>886</v>
+        <v>410</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>401</v>
+        <v>888</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>887</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>404</v>
+        <v>889</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>888</v>
+        <v>421</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>413</v>
+        <v>890</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>889</v>
+        <v>424</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>415</v>
+        <v>891</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>418</v>
+        <v>892</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>420</v>
+        <v>893</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>890</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>891</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>892</v>
+        <v>438</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>429</v>
+        <v>896</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>893</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>432</v>
+        <v>898</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>435</v>
+        <v>904</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>438</v>
+        <v>905</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>896</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>448</v>
+        <v>907</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>898</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>904</v>
+        <v>479</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>469</v>
+        <v>918</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>905</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>477</v>
+        <v>924</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>480</v>
+        <v>932</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>918</v>
+        <v>539</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>505</v>
+        <v>936</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>507</v>
+        <v>938</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>923</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>520</v>
+        <v>943</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>924</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>563</v>
+        <v>665</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>564</v>
+        <v>666</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>564</v>
+        <v>666</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="B282" s="1" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>665</v>
+        <v>610</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>996</v>
+        <v>968</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>666</v>
+        <v>611</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="B292" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>667</v>
+        <v>613</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>667</v>
+        <v>613</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>974</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>975</v>
+        <v>628</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>619</v>
+        <v>980</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>976</v>
+        <v>630</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>621</v>
+        <v>981</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>978</v>
+        <v>632</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>623</v>
+        <v>982</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>624</v>
+        <v>1066</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>979</v>
+        <v>634</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>625</v>
+        <v>983</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>980</v>
+        <v>636</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>627</v>
+        <v>984</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>1067</v>
+        <v>644</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>985</v>
+        <v>647</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>986</v>
+        <v>649</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>987</v>
+        <v>651</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>642</v>
+        <v>989</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>988</v>
+        <v>653</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>644</v>
+        <v>990</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>989</v>
+        <v>655</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>646</v>
+        <v>971</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="B338" s="1" t="s">
-        <v>648</v>
+        <v>991</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>650</v>
+        <v>992</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>971</v>
+        <v>996</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="B348" s="1" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="B352" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>997</v>
+        <v>679</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>972</v>
+        <v>681</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>671</v>
+        <v>999</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>973</v>
+        <v>683</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="B362" s="1" t="s">
-        <v>998</v>
+        <v>685</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>999</v>
+        <v>687</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1000</v>
+        <v>692</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>691</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>693</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>695</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1002</v>
+        <v>715</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>702</v>
+        <v>977</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1001</v>
+        <v>717</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1004</v>
+        <v>719</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>1005</v>
+        <v>672</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>710</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>711</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>713</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>977</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>718</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>720</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>672</v>
+        <v>731</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>1068</v>
+        <v>732</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1006</v>
+        <v>733</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>722</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1007</v>
+        <v>735</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>724</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1012</v>
+        <v>749</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>735</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1013</v>
+        <v>751</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>737</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1014</v>
+        <v>753</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>739</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1015</v>
+        <v>756</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>742</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1016</v>
+        <v>758</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>744</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1017</v>
+        <v>760</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>746</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1018</v>
+        <v>762</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="B435" s="1" t="s">
-        <v>748</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="B436" s="1" t="s">
-        <v>749</v>
+        <v>673</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>754</v>
+        <v>1</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>755</v>
+        <v>70</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>755</v>
+        <v>793</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>756</v>
+        <v>71</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>756</v>
+        <v>71</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>757</v>
+        <v>72</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1022</v>
+        <v>72</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>758</v>
+        <v>92</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>759</v>
+        <v>93</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1023</v>
+        <v>93</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>760</v>
+        <v>94</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B474" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7492,10 +7277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A319" sqref="A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8230,7 +8015,7 @@
         <v>705</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8558,7 +8343,7 @@
         <v>441</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -9210,7 +8995,7 @@
         <v>579</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -10003,6 +9788,222 @@
       </c>
       <c r="B313" s="1" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/UefiCrtSymbolsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54244FA-1B9F-49D1-9086-720570B7E74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C141522-BD05-4291-858B-3ADF43182948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1944" windowWidth="34560" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1944" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UEFI CRT Symbols List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1073">
   <si>
     <t>arm64 Common Symbols</t>
   </si>
@@ -3247,6 +3247,10 @@
   </si>
   <si>
     <t>d:\os\obj\amd64fre\minkernel\crts\fpw32\tran\nt\objfre\amd64\amd64_sincos.obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_snscanf_l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3290,10 +3294,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3574,3698 +3576,3145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C447"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="86.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>779</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>781</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>782</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>784</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>785</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>786</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>787</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>790</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>791</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>792</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>797</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>799</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>802</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>804</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>183</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>184</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>185</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>186</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>198</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>211</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>213</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>217</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>218</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>220</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>221</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>222</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>225</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>231</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>247</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>248</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>253</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>254</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>271</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>272</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>273</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>274</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>275</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>276</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>277</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>278</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>283</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>284</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>285</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>299</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>300</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>301</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>302</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>303</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>304</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>305</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>306</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>307</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>308</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>309</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>310</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>311</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>312</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>313</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>314</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>315</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>316</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>317</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>318</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>319</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>320</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>321</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>322</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>323</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>324</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>330</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>331</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>340</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>341</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>342</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>346</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>347</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>348</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>868</v>
+      <c r="A152" t="s">
+        <v>385</v>
+      </c>
+      <c r="B152" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>350</v>
+      <c r="A153" t="s">
+        <v>386</v>
+      </c>
+      <c r="B153" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>869</v>
+      <c r="A154" t="s">
+        <v>389</v>
+      </c>
+      <c r="B154" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>352</v>
+      <c r="A155" t="s">
+        <v>390</v>
+      </c>
+      <c r="B155" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>870</v>
+      <c r="A156" t="s">
+        <v>391</v>
+      </c>
+      <c r="B156" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>354</v>
+      <c r="A157" t="s">
+        <v>392</v>
+      </c>
+      <c r="B157" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>355</v>
+      <c r="A158" t="s">
+        <v>395</v>
+      </c>
+      <c r="B158" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>872</v>
+      <c r="A159" t="s">
+        <v>396</v>
+      </c>
+      <c r="B159" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>361</v>
+      <c r="A160" t="s">
+        <v>411</v>
+      </c>
+      <c r="B160" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>362</v>
+      <c r="A161" t="s">
+        <v>412</v>
+      </c>
+      <c r="B161" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>363</v>
+      <c r="A162" t="s">
+        <v>413</v>
+      </c>
+      <c r="B162" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>364</v>
+      <c r="A163" t="s">
+        <v>425</v>
+      </c>
+      <c r="B163" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>874</v>
+      <c r="A164" t="s">
+        <v>426</v>
+      </c>
+      <c r="B164" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>369</v>
+      <c r="A165" t="s">
+        <v>427</v>
+      </c>
+      <c r="B165" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>875</v>
+      <c r="A166" t="s">
+        <v>446</v>
+      </c>
+      <c r="B166" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>371</v>
+      <c r="A167" t="s">
+        <v>447</v>
+      </c>
+      <c r="B167" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>372</v>
+      <c r="A168" t="s">
+        <v>448</v>
+      </c>
+      <c r="B168" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>373</v>
+      <c r="A169" t="s">
+        <v>451</v>
+      </c>
+      <c r="B169" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>876</v>
+      <c r="A170" t="s">
+        <v>452</v>
+      </c>
+      <c r="B170" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>375</v>
+      <c r="A171" t="s">
+        <v>453</v>
+      </c>
+      <c r="B171" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>877</v>
+      <c r="A172" t="s">
+        <v>467</v>
+      </c>
+      <c r="B172" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>377</v>
+      <c r="A173" t="s">
+        <v>468</v>
+      </c>
+      <c r="B173" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>878</v>
+      <c r="A174" t="s">
+        <v>469</v>
+      </c>
+      <c r="B174" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>379</v>
+      <c r="A175" t="s">
+        <v>470</v>
+      </c>
+      <c r="B175" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>380</v>
+      <c r="A176" t="s">
+        <v>471</v>
+      </c>
+      <c r="B176" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>381</v>
+      <c r="A177" t="s">
+        <v>472</v>
+      </c>
+      <c r="B177" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>879</v>
+      <c r="A178" t="s">
+        <v>475</v>
+      </c>
+      <c r="B178" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>383</v>
+      <c r="A179" t="s">
+        <v>476</v>
+      </c>
+      <c r="B179" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>384</v>
+      <c r="A180" t="s">
+        <v>477</v>
+      </c>
+      <c r="B180" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>880</v>
+      <c r="A181" t="s">
+        <v>478</v>
+      </c>
+      <c r="B181" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>386</v>
+      <c r="A182" t="s">
+        <v>479</v>
+      </c>
+      <c r="B182" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>881</v>
+      <c r="A183" t="s">
+        <v>480</v>
+      </c>
+      <c r="B183" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>388</v>
+      <c r="A184" t="s">
+        <v>504</v>
+      </c>
+      <c r="B184" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>882</v>
+      <c r="A185" t="s">
+        <v>505</v>
+      </c>
+      <c r="B185" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>390</v>
+      <c r="A186" t="s">
+        <v>506</v>
+      </c>
+      <c r="B186" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>391</v>
+      <c r="A187" t="s">
+        <v>507</v>
+      </c>
+      <c r="B187" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>392</v>
+      <c r="A188" t="s">
+        <v>519</v>
+      </c>
+      <c r="B188" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>883</v>
+      <c r="A189" t="s">
+        <v>520</v>
+      </c>
+      <c r="B189" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>394</v>
+      <c r="A190" t="s">
+        <v>521</v>
+      </c>
+      <c r="B190" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>884</v>
+      <c r="A191" t="s">
+        <v>522</v>
+      </c>
+      <c r="B191" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>396</v>
+      <c r="A192" t="s">
+        <v>523</v>
+      </c>
+      <c r="B192" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>885</v>
+      <c r="A193" t="s">
+        <v>538</v>
+      </c>
+      <c r="B193" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>398</v>
+      <c r="A194" t="s">
+        <v>539</v>
+      </c>
+      <c r="B194" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>399</v>
+      <c r="A195" t="s">
+        <v>546</v>
+      </c>
+      <c r="B195" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>886</v>
+      <c r="A196" t="s">
+        <v>547</v>
+      </c>
+      <c r="B196" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>401</v>
+      <c r="A197" t="s">
+        <v>550</v>
+      </c>
+      <c r="B197" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>402</v>
+      <c r="A198" t="s">
+        <v>551</v>
+      </c>
+      <c r="B198" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>887</v>
+      <c r="A199" t="s">
+        <v>561</v>
+      </c>
+      <c r="B199" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>404</v>
+      <c r="A200" t="s">
+        <v>562</v>
+      </c>
+      <c r="B200" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>405</v>
+      <c r="A201" t="s">
+        <v>563</v>
+      </c>
+      <c r="B201" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>406</v>
+      <c r="A202" t="s">
+        <v>564</v>
+      </c>
+      <c r="B202" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>407</v>
+      <c r="A203" t="s">
+        <v>596</v>
+      </c>
+      <c r="B203" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>408</v>
+      <c r="A204" t="s">
+        <v>597</v>
+      </c>
+      <c r="B204" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>409</v>
+      <c r="A205" t="s">
+        <v>598</v>
+      </c>
+      <c r="B205" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>410</v>
+      <c r="A206" t="s">
+        <v>599</v>
+      </c>
+      <c r="B206" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>888</v>
+      <c r="A207" t="s">
+        <v>600</v>
+      </c>
+      <c r="B207" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>412</v>
+      <c r="A208" t="s">
+        <v>601</v>
+      </c>
+      <c r="B208" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>413</v>
+      <c r="A209" t="s">
+        <v>602</v>
+      </c>
+      <c r="B209" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>889</v>
+      <c r="A210" t="s">
+        <v>603</v>
+      </c>
+      <c r="B210" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>415</v>
+      <c r="A211" t="s">
+        <v>665</v>
+      </c>
+      <c r="B211" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>416</v>
+      <c r="A212" t="s">
+        <v>666</v>
+      </c>
+      <c r="B212" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>417</v>
+      <c r="B213" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>418</v>
+      <c r="A214" t="s">
+        <v>667</v>
+      </c>
+      <c r="B214" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>419</v>
+      <c r="A215" t="s">
+        <v>604</v>
+      </c>
+      <c r="B215" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>420</v>
+      <c r="A216" t="s">
+        <v>605</v>
+      </c>
+      <c r="B216" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>421</v>
+      <c r="A217" t="s">
+        <v>606</v>
+      </c>
+      <c r="B217" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>422</v>
+      <c r="A218" t="s">
+        <v>607</v>
+      </c>
+      <c r="B218" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>890</v>
+      <c r="A219" t="s">
+        <v>608</v>
+      </c>
+      <c r="B219" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>424</v>
+      <c r="A220" t="s">
+        <v>609</v>
+      </c>
+      <c r="B220" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>891</v>
+      <c r="A221" t="s">
+        <v>610</v>
+      </c>
+      <c r="B221" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>426</v>
+      <c r="A222" t="s">
+        <v>611</v>
+      </c>
+      <c r="B222" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>427</v>
+      <c r="A223" t="s">
+        <v>612</v>
+      </c>
+      <c r="B223" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>892</v>
+      <c r="A224" t="s">
+        <v>613</v>
+      </c>
+      <c r="B224" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>429</v>
+      <c r="A225" t="s">
+        <v>614</v>
+      </c>
+      <c r="B225" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>893</v>
+      <c r="A226" t="s">
+        <v>615</v>
+      </c>
+      <c r="B226" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>431</v>
+      <c r="A227" t="s">
+        <v>616</v>
+      </c>
+      <c r="B227" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>432</v>
+      <c r="A228" t="s">
+        <v>617</v>
+      </c>
+      <c r="B228" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>433</v>
+      <c r="A229" t="s">
+        <v>618</v>
+      </c>
+      <c r="B229" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>434</v>
+      <c r="A230" t="s">
+        <v>619</v>
+      </c>
+      <c r="B230" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>435</v>
+      <c r="A231" t="s">
+        <v>620</v>
+      </c>
+      <c r="B231" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>436</v>
+      <c r="A232" t="s">
+        <v>621</v>
+      </c>
+      <c r="B232" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>437</v>
+      <c r="A233" t="s">
+        <v>622</v>
+      </c>
+      <c r="B233" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>438</v>
+      <c r="A234" t="s">
+        <v>623</v>
+      </c>
+      <c r="B234" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>896</v>
+      <c r="A235" t="s">
+        <v>624</v>
+      </c>
+      <c r="B235" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>447</v>
+      <c r="A236" t="s">
+        <v>625</v>
+      </c>
+      <c r="B236" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>448</v>
+      <c r="A237" t="s">
+        <v>626</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>898</v>
+      <c r="A238" t="s">
+        <v>627</v>
+      </c>
+      <c r="B238" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>452</v>
+      <c r="A239" t="s">
+        <v>628</v>
+      </c>
+      <c r="B239" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>453</v>
+      <c r="A240" t="s">
+        <v>629</v>
+      </c>
+      <c r="B240" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>904</v>
+      <c r="A241" t="s">
+        <v>630</v>
+      </c>
+      <c r="B241" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>468</v>
+      <c r="A242" t="s">
+        <v>631</v>
+      </c>
+      <c r="B242" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>469</v>
+      <c r="A243" t="s">
+        <v>632</v>
+      </c>
+      <c r="B243" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>905</v>
+      <c r="A244" t="s">
+        <v>633</v>
+      </c>
+      <c r="B244" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>471</v>
+      <c r="A245" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B245" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>472</v>
+      <c r="A246" t="s">
+        <v>635</v>
+      </c>
+      <c r="B246" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>907</v>
+      <c r="A247" t="s">
+        <v>636</v>
+      </c>
+      <c r="B247" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>476</v>
+      <c r="A248" t="s">
+        <v>637</v>
+      </c>
+      <c r="B248" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>477</v>
+      <c r="A249" t="s">
+        <v>638</v>
+      </c>
+      <c r="B249" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>478</v>
+      <c r="A250" t="s">
+        <v>639</v>
+      </c>
+      <c r="B250" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>479</v>
+      <c r="A251" t="s">
+        <v>640</v>
+      </c>
+      <c r="B251" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>480</v>
+      <c r="A252" t="s">
+        <v>641</v>
+      </c>
+      <c r="B252" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>918</v>
+      <c r="A253" t="s">
+        <v>642</v>
+      </c>
+      <c r="B253" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>505</v>
+      <c r="A254" t="s">
+        <v>643</v>
+      </c>
+      <c r="B254" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>506</v>
+      <c r="A255" t="s">
+        <v>644</v>
+      </c>
+      <c r="B255" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>507</v>
+      <c r="A256" t="s">
+        <v>645</v>
+      </c>
+      <c r="B256" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>923</v>
+      <c r="A257" t="s">
+        <v>646</v>
+      </c>
+      <c r="B257" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>520</v>
+      <c r="A258" t="s">
+        <v>647</v>
+      </c>
+      <c r="B258" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>924</v>
+      <c r="A259" t="s">
+        <v>648</v>
+      </c>
+      <c r="B259" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>522</v>
+      <c r="A260" t="s">
+        <v>649</v>
+      </c>
+      <c r="B260" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>523</v>
+      <c r="A261" t="s">
+        <v>650</v>
+      </c>
+      <c r="B261" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>932</v>
+      <c r="A262" t="s">
+        <v>651</v>
+      </c>
+      <c r="B262" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>539</v>
+      <c r="A263" t="s">
+        <v>652</v>
+      </c>
+      <c r="B263" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>936</v>
+      <c r="A264" t="s">
+        <v>653</v>
+      </c>
+      <c r="B264" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>547</v>
+      <c r="A265" t="s">
+        <v>654</v>
+      </c>
+      <c r="B265" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>938</v>
+      <c r="A266" t="s">
+        <v>655</v>
+      </c>
+      <c r="B266" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>551</v>
+      <c r="A267" t="s">
+        <v>656</v>
+      </c>
+      <c r="B267" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>943</v>
+      <c r="A268" t="s">
+        <v>657</v>
+      </c>
+      <c r="B268" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>562</v>
+      <c r="B269" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>563</v>
+      <c r="A270" t="s">
+        <v>658</v>
+      </c>
+      <c r="B270" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>564</v>
+      <c r="A271" t="s">
+        <v>659</v>
+      </c>
+      <c r="B271" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>960</v>
+      <c r="A272" t="s">
+        <v>660</v>
+      </c>
+      <c r="B272" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>597</v>
+      <c r="A273" t="s">
+        <v>661</v>
+      </c>
+      <c r="B273" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>961</v>
+      <c r="A274" t="s">
+        <v>662</v>
+      </c>
+      <c r="B274" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>599</v>
+      <c r="A275" t="s">
+        <v>663</v>
+      </c>
+      <c r="B275" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>962</v>
+      <c r="A276" t="s">
+        <v>664</v>
+      </c>
+      <c r="B276" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>601</v>
+      <c r="A277" t="s">
+        <v>668</v>
+      </c>
+      <c r="B277" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>963</v>
+      <c r="A278" t="s">
+        <v>669</v>
+      </c>
+      <c r="B278" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>603</v>
+      <c r="A279" t="s">
+        <v>670</v>
+      </c>
+      <c r="B279" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>995</v>
+      <c r="A280" t="s">
+        <v>671</v>
+      </c>
+      <c r="B280" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>666</v>
+      <c r="A281" t="s">
+        <v>674</v>
+      </c>
+      <c r="B281" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="1" t="s">
-        <v>964</v>
+      <c r="A282" t="s">
+        <v>675</v>
+      </c>
+      <c r="B282" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>667</v>
+      <c r="B283" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>965</v>
+      <c r="A284" t="s">
+        <v>676</v>
+      </c>
+      <c r="B284" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>605</v>
+      <c r="A285" t="s">
+        <v>677</v>
+      </c>
+      <c r="B285" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>966</v>
+      <c r="A286" t="s">
+        <v>678</v>
+      </c>
+      <c r="B286" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>607</v>
+      <c r="A287" t="s">
+        <v>679</v>
+      </c>
+      <c r="B287" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>967</v>
+      <c r="A288" t="s">
+        <v>680</v>
+      </c>
+      <c r="B288" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>609</v>
+      <c r="A289" t="s">
+        <v>681</v>
+      </c>
+      <c r="B289" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>968</v>
+      <c r="A290" t="s">
+        <v>682</v>
+      </c>
+      <c r="B290" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>611</v>
+      <c r="A291" t="s">
+        <v>683</v>
+      </c>
+      <c r="B291" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>969</v>
+      <c r="A292" t="s">
+        <v>684</v>
+      </c>
+      <c r="B292" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>613</v>
+      <c r="A293" t="s">
+        <v>685</v>
+      </c>
+      <c r="B293" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>970</v>
+      <c r="A294" t="s">
+        <v>686</v>
+      </c>
+      <c r="B294" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>615</v>
+      <c r="A295" t="s">
+        <v>687</v>
+      </c>
+      <c r="B295" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>974</v>
+      <c r="A296" t="s">
+        <v>688</v>
+      </c>
+      <c r="B296" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>617</v>
+      <c r="A297" t="s">
+        <v>689</v>
+      </c>
+      <c r="B297" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>975</v>
+      <c r="A298" t="s">
+        <v>690</v>
+      </c>
+      <c r="B298" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>619</v>
+      <c r="A299" t="s">
+        <v>691</v>
+      </c>
+      <c r="B299" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>976</v>
+      <c r="A300" t="s">
+        <v>692</v>
+      </c>
+      <c r="B300" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>621</v>
+      <c r="A301" t="s">
+        <v>693</v>
+      </c>
+      <c r="B301" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>978</v>
+      <c r="A302" t="s">
+        <v>694</v>
+      </c>
+      <c r="B302" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>623</v>
+      <c r="A303" t="s">
+        <v>695</v>
+      </c>
+      <c r="B303" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>979</v>
+      <c r="A304" t="s">
+        <v>696</v>
+      </c>
+      <c r="B304" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>625</v>
+      <c r="A305" t="s">
+        <v>697</v>
+      </c>
+      <c r="B305" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>1071</v>
+      <c r="A306" t="s">
+        <v>698</v>
+      </c>
+      <c r="B306" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>627</v>
+      <c r="A307" t="s">
+        <v>699</v>
+      </c>
+      <c r="B307" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>628</v>
+      <c r="A308" t="s">
+        <v>700</v>
+      </c>
+      <c r="B308" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>980</v>
+      <c r="A309" t="s">
+        <v>701</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>630</v>
+      <c r="A310" t="s">
+        <v>702</v>
+      </c>
+      <c r="B310" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>981</v>
+      <c r="A311" t="s">
+        <v>707</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>632</v>
+      <c r="A312" t="s">
+        <v>708</v>
+      </c>
+      <c r="B312" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>982</v>
+      <c r="A313" t="s">
+        <v>709</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>634</v>
+      <c r="A314" t="s">
+        <v>710</v>
+      </c>
+      <c r="B314" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>983</v>
+      <c r="A315" t="s">
+        <v>711</v>
+      </c>
+      <c r="B315" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>636</v>
+      <c r="A316" t="s">
+        <v>712</v>
+      </c>
+      <c r="B316" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>984</v>
+      <c r="A317" t="s">
+        <v>713</v>
+      </c>
+      <c r="B317" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>638</v>
+      <c r="A318" t="s">
+        <v>714</v>
+      </c>
+      <c r="B318" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>985</v>
+      <c r="A319" t="s">
+        <v>715</v>
+      </c>
+      <c r="B319" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>640</v>
+      <c r="A320" t="s">
+        <v>716</v>
+      </c>
+      <c r="B320" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>986</v>
+      <c r="A321" t="s">
+        <v>717</v>
+      </c>
+      <c r="B321" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>642</v>
+      <c r="A322" t="s">
+        <v>718</v>
+      </c>
+      <c r="B322" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>987</v>
+      <c r="A323" t="s">
+        <v>719</v>
+      </c>
+      <c r="B323" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>644</v>
+      <c r="A324" t="s">
+        <v>720</v>
+      </c>
+      <c r="B324" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>988</v>
+      <c r="A325" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>646</v>
+      <c r="A326" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>647</v>
+      <c r="A327" t="s">
+        <v>721</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>648</v>
+      <c r="A328" t="s">
+        <v>722</v>
+      </c>
+      <c r="B328" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>649</v>
+      <c r="A329" t="s">
+        <v>723</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>650</v>
+      <c r="A330" t="s">
+        <v>724</v>
+      </c>
+      <c r="B330" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>651</v>
+      <c r="A331" t="s">
+        <v>725</v>
+      </c>
+      <c r="B331" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>989</v>
+      <c r="A332" t="s">
+        <v>726</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>653</v>
+      <c r="A333" t="s">
+        <v>727</v>
+      </c>
+      <c r="B333" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>990</v>
+      <c r="A334" t="s">
+        <v>728</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>655</v>
+      <c r="A335" t="s">
+        <v>729</v>
+      </c>
+      <c r="B335" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>971</v>
+      <c r="A336" t="s">
+        <v>730</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>657</v>
+      <c r="A337" t="s">
+        <v>731</v>
+      </c>
+      <c r="B337" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="1" t="s">
-        <v>991</v>
+      <c r="A338" t="s">
+        <v>732</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>658</v>
+      <c r="A339" t="s">
+        <v>733</v>
+      </c>
+      <c r="B339" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>992</v>
+      <c r="A340" t="s">
+        <v>734</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>660</v>
+      <c r="A341" t="s">
+        <v>735</v>
+      </c>
+      <c r="B341" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>993</v>
+      <c r="A342" t="s">
+        <v>736</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>662</v>
+      <c r="A343" t="s">
+        <v>737</v>
+      </c>
+      <c r="B343" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>994</v>
+      <c r="A344" t="s">
+        <v>741</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>664</v>
+      <c r="A345" t="s">
+        <v>742</v>
+      </c>
+      <c r="B345" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>996</v>
+      <c r="A346" t="s">
+        <v>743</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>669</v>
+      <c r="A347" t="s">
+        <v>744</v>
+      </c>
+      <c r="B347" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>972</v>
+      <c r="A348" t="s">
+        <v>745</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>671</v>
+      <c r="A349" t="s">
+        <v>746</v>
+      </c>
+      <c r="B349" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>973</v>
+      <c r="A350" t="s">
+        <v>747</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>675</v>
+      <c r="A351" t="s">
+        <v>748</v>
+      </c>
+      <c r="B351" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="1" t="s">
-        <v>997</v>
+      <c r="A352" t="s">
+        <v>749</v>
+      </c>
+      <c r="B352" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>676</v>
+      <c r="A353" t="s">
+        <v>750</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>998</v>
+      <c r="A354" t="s">
+        <v>751</v>
+      </c>
+      <c r="B354" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>678</v>
+      <c r="A355" t="s">
+        <v>752</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>679</v>
+      <c r="A356" t="s">
+        <v>753</v>
+      </c>
+      <c r="B356" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>680</v>
+      <c r="A357" t="s">
+        <v>754</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>681</v>
+      <c r="A358" t="s">
+        <v>755</v>
+      </c>
+      <c r="B358" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>999</v>
+      <c r="A359" t="s">
+        <v>756</v>
+      </c>
+      <c r="B359" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>683</v>
+      <c r="A360" t="s">
+        <v>757</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>684</v>
+      <c r="A361" t="s">
+        <v>758</v>
+      </c>
+      <c r="B361" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>685</v>
+      <c r="A362" t="s">
+        <v>759</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>686</v>
+      <c r="A363" t="s">
+        <v>760</v>
+      </c>
+      <c r="B363" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>687</v>
+      <c r="A364" t="s">
+        <v>761</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>688</v>
+      <c r="A365" t="s">
+        <v>762</v>
+      </c>
+      <c r="B365" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>689</v>
+      <c r="B366" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>690</v>
+      <c r="B367" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>691</v>
+      <c r="A368" t="s">
+        <v>763</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>692</v>
+      <c r="A369" t="s">
+        <v>764</v>
+      </c>
+      <c r="B369" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>693</v>
+      <c r="A370" t="s">
+        <v>765</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>694</v>
+      <c r="A371" t="s">
+        <v>766</v>
+      </c>
+      <c r="B371" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>695</v>
+      <c r="A372" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>696</v>
+      <c r="A373" t="s">
+        <v>70</v>
+      </c>
+      <c r="B373" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>697</v>
+      <c r="A374" t="s">
+        <v>71</v>
+      </c>
+      <c r="B374" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>698</v>
+      <c r="A375" t="s">
+        <v>72</v>
+      </c>
+      <c r="B375" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>699</v>
+      <c r="A376" t="s">
+        <v>92</v>
+      </c>
+      <c r="B376" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>700</v>
+      <c r="A377" t="s">
+        <v>93</v>
+      </c>
+      <c r="B377" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
+      <c r="A378" t="s">
         <v>94</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B378" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7277,2733 +6726,3282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADE4D5-49C9-4B3A-AAC3-C72CBEBC9A41}">
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="A319" sqref="A319"/>
+    <sheetView topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>234</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>256</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>258</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>259</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>261</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>268</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>270</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>35</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>36</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>152</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>705</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>706</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>133</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>135</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>136</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>439</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>440</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>442</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>495</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>496</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>497</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>498</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>499</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>500</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>501</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>502</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>503</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>508</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>509</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>510</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>511</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>512</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>517</v>
       </c>
-      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>518</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>513</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>514</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>515</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>516</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>524</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>525</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>526</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>527</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>528</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>529</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>530</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>531</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>532</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>533</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>534</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>535</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>536</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>537</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>443</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>444</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>445</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>449</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>450</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>454</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>455</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>456</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>457</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>458</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>459</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>460</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>461</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>462</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>463</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>464</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>465</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>466</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>540</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>541</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>548</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>549</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>552</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>553</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>554</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>555</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>556</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>557</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>558</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>559</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>560</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>565</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>566</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>567</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>568</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>569</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>570</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>571</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>572</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>573</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>574</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>575</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>576</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>577</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>578</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>579</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>473</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>474</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>481</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>482</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>483</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>484</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>485</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>486</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>487</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>488</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>489</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>490</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>491</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>492</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>126</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>127</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>170</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>171</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>172</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>173</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>174</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>175</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>176</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>196</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>197</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>229</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>230</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>250</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>251</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>252</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>286</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>287</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>288</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>289</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>290</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>291</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>292</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>293</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>294</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>295</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>296</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>297</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>298</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>542</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>543</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>544</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>545</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>580</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>581</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>582</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>583</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>584</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>585</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>586</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>587</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>588</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>589</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>590</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>591</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>592</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>593</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>594</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>595</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>493</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>494</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>327</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>328</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>329</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>325</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>326</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>84</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>85</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>88</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>89</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>200</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>201</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>202</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>365</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>366</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>367</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>356</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>357</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>358</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>359</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>332</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>333</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>334</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>335</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>336</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>337</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>338</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>339</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>203</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>204</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>205</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>738</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>739</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>740</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>703</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>704</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>767</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>768</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>769</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>770</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>771</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>772</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>773</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>774</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>775</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>776</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>777</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>778</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>343</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>344</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>345</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>279</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>280</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>281</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>282</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>353</v>
+      </c>
+      <c r="B341" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>354</v>
+      </c>
+      <c r="B342" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>355</v>
+      </c>
+      <c r="B343" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>360</v>
+      </c>
+      <c r="B344" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>361</v>
+      </c>
+      <c r="B345" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>362</v>
+      </c>
+      <c r="B346" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>363</v>
+      </c>
+      <c r="B347" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>364</v>
+      </c>
+      <c r="B348" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>397</v>
+      </c>
+      <c r="B349" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>398</v>
+      </c>
+      <c r="B350" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>399</v>
+      </c>
+      <c r="B351" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>403</v>
+      </c>
+      <c r="B352" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>404</v>
+      </c>
+      <c r="B353" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>405</v>
+      </c>
+      <c r="B354" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>406</v>
+      </c>
+      <c r="B355" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>407</v>
+      </c>
+      <c r="B356" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>408</v>
+      </c>
+      <c r="B357" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>409</v>
+      </c>
+      <c r="B358" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>410</v>
+      </c>
+      <c r="B359" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>368</v>
+      </c>
+      <c r="B360" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>376</v>
+      </c>
+      <c r="B362" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>377</v>
+      </c>
+      <c r="B363" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>393</v>
+      </c>
+      <c r="B364" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>394</v>
+      </c>
+      <c r="B365" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>349</v>
+      </c>
+      <c r="B366" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>350</v>
+      </c>
+      <c r="B367" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>351</v>
+      </c>
+      <c r="B368" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>352</v>
+      </c>
+      <c r="B369" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>378</v>
+      </c>
+      <c r="B374" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>379</v>
+      </c>
+      <c r="B375" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>380</v>
+      </c>
+      <c r="B376" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>381</v>
+      </c>
+      <c r="B377" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>428</v>
+      </c>
+      <c r="B378" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>429</v>
+      </c>
+      <c r="B379" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>430</v>
+      </c>
+      <c r="B380" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>431</v>
+      </c>
+      <c r="B381" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>432</v>
+      </c>
+      <c r="B382" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>433</v>
+      </c>
+      <c r="B383" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>434</v>
+      </c>
+      <c r="B384" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>435</v>
+      </c>
+      <c r="B385" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>436</v>
+      </c>
+      <c r="B386" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>437</v>
+      </c>
+      <c r="B387" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>438</v>
+      </c>
+      <c r="B388" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>400</v>
+      </c>
+      <c r="B389" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>401</v>
+      </c>
+      <c r="B390" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>402</v>
+      </c>
+      <c r="B391" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>414</v>
+      </c>
+      <c r="B392" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>415</v>
+      </c>
+      <c r="B393" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>416</v>
+      </c>
+      <c r="B394" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>417</v>
+      </c>
+      <c r="B395" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>418</v>
+      </c>
+      <c r="B396" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>419</v>
+      </c>
+      <c r="B397" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>420</v>
+      </c>
+      <c r="B398" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>421</v>
+      </c>
+      <c r="B399" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>422</v>
+      </c>
+      <c r="B400" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>423</v>
+      </c>
+      <c r="B401" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>424</v>
+      </c>
+      <c r="B402" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>374</v>
+      </c>
+      <c r="B403" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>375</v>
+      </c>
+      <c r="B404" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>382</v>
+      </c>
+      <c r="B405" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>383</v>
+      </c>
+      <c r="B406" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>384</v>
+      </c>
+      <c r="B407" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>387</v>
+      </c>
+      <c r="B408" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>388</v>
+      </c>
+      <c r="B409" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
